--- a/LO-Letters_data.xlsx
+++ b/LO-Letters_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Dropbox\USA\ANU work\Protein manuscript\Resubmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7703F-C9AE-4026-B0F6-2DBABD8FA462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1023536-6C8F-46F6-957B-82FA97BBC065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40065" yWindow="240" windowWidth="16365" windowHeight="15585" activeTab="2" xr2:uid="{A735F8BE-FE2E-4EE9-9D83-F5E5A907FE87}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="24660" windowHeight="15585" xr2:uid="{A735F8BE-FE2E-4EE9-9D83-F5E5A907FE87}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cell volume" sheetId="1" r:id="rId1"/>
+    <sheet name="Cell_volume" sheetId="1" r:id="rId1"/>
     <sheet name="Rubisco" sheetId="3" r:id="rId2"/>
-    <sheet name="PCA input" sheetId="4" r:id="rId3"/>
+    <sheet name="PCA_input" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB91526-34A7-48C3-8751-3C9393521E46}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,7 +2648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C37FF1-EEC9-43F4-8F2C-D85DDCAA5A94}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>

--- a/LO-Letters_data.xlsx
+++ b/LO-Letters_data.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Dropbox\USA\ANU work\Protein manuscript\Resubmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1023536-6C8F-46F6-957B-82FA97BBC065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BDD2C6-4677-4B80-B6B3-BCD9D3E1BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="24660" windowHeight="15585" xr2:uid="{A735F8BE-FE2E-4EE9-9D83-F5E5A907FE87}"/>
+    <workbookView xWindow="7380" yWindow="0" windowWidth="24660" windowHeight="15585" activeTab="3" xr2:uid="{A735F8BE-FE2E-4EE9-9D83-F5E5A907FE87}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_volume" sheetId="1" r:id="rId1"/>
     <sheet name="Rubisco" sheetId="3" r:id="rId2"/>
     <sheet name="PCA_input" sheetId="4" r:id="rId3"/>
+    <sheet name="ANOVA_pt" sheetId="5" r:id="rId4"/>
+    <sheet name="ANOVA_pa" sheetId="6" r:id="rId5"/>
+    <sheet name="ANOVA_pi" sheetId="7" r:id="rId6"/>
+    <sheet name="ANOVA_cf" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="128">
   <si>
     <t>HLFe+</t>
   </si>
@@ -417,6 +421,9 @@
   </si>
   <si>
     <t>LL Fe-</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
@@ -773,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB91526-34A7-48C3-8751-3C9393521E46}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -2648,7 +2655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C37FF1-EEC9-43F4-8F2C-D85DDCAA5A94}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -4960,4 +4967,2664 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80AE7DC-3937-49F1-962C-0CEE49E26AF2}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2">
+        <v>0.91983659176354404</v>
+      </c>
+      <c r="F2">
+        <v>13.593987974716171</v>
+      </c>
+      <c r="G2">
+        <v>2.2521182150429122</v>
+      </c>
+      <c r="H2">
+        <v>0.47170000000000001</v>
+      </c>
+      <c r="I2">
+        <v>647.51</v>
+      </c>
+      <c r="J2">
+        <v>0.24666465127853573</v>
+      </c>
+      <c r="K2">
+        <v>100.24775623792463</v>
+      </c>
+      <c r="L2">
+        <v>2.1507483529636571</v>
+      </c>
+      <c r="M2">
+        <v>3.2789935462386746</v>
+      </c>
+      <c r="N2">
+        <v>1.570443</v>
+      </c>
+      <c r="O2">
+        <v>9.5</v>
+      </c>
+      <c r="P2">
+        <v>2.6443840000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <v>0.96746765380896749</v>
+      </c>
+      <c r="F3">
+        <v>12.979817012236628</v>
+      </c>
+      <c r="G3">
+        <v>2.1631193208424695</v>
+      </c>
+      <c r="H3">
+        <v>0.47120000000000001</v>
+      </c>
+      <c r="I3">
+        <v>651.82000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.34381533827659866</v>
+      </c>
+      <c r="K3">
+        <v>97.029114370990428</v>
+      </c>
+      <c r="L3">
+        <v>2.107975942208228</v>
+      </c>
+      <c r="M3">
+        <v>1.2941713364627636</v>
+      </c>
+      <c r="N3">
+        <v>1.264421</v>
+      </c>
+      <c r="O3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P3">
+        <v>2.3650669999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>0.94365212278625576</v>
+      </c>
+      <c r="F4">
+        <v>13.439512868177339</v>
+      </c>
+      <c r="G4">
+        <v>2.1393844087945366</v>
+      </c>
+      <c r="H4">
+        <v>0.46870000000000001</v>
+      </c>
+      <c r="I4">
+        <v>657.25</v>
+      </c>
+      <c r="J4">
+        <v>0.21099370642848228</v>
+      </c>
+      <c r="K4">
+        <v>112.02497786765471</v>
+      </c>
+      <c r="L4">
+        <v>2.1433580667685694</v>
+      </c>
+      <c r="M4">
+        <v>0.39651251345545901</v>
+      </c>
+      <c r="N4">
+        <v>1.1229</v>
+      </c>
+      <c r="O4">
+        <v>8.9</v>
+      </c>
+      <c r="P4">
+        <v>1.4351210000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>0.64766503461976044</v>
+      </c>
+      <c r="F5">
+        <v>5.8364513862734819</v>
+      </c>
+      <c r="G5">
+        <v>0.73464851465377723</v>
+      </c>
+      <c r="H5">
+        <v>0.3977</v>
+      </c>
+      <c r="I5">
+        <v>804.85</v>
+      </c>
+      <c r="J5">
+        <v>5.8304366816481996E-2</v>
+      </c>
+      <c r="K5">
+        <v>113.60282069036337</v>
+      </c>
+      <c r="L5">
+        <v>1.9641489196286708</v>
+      </c>
+      <c r="M5">
+        <v>2.4619724350566578E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.090098</v>
+      </c>
+      <c r="O5">
+        <v>5.4</v>
+      </c>
+      <c r="P5">
+        <v>1.0568109999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>0.5743907694978122</v>
+      </c>
+      <c r="F6">
+        <v>6.9693110618730367</v>
+      </c>
+      <c r="G6">
+        <v>0.88882832691507641</v>
+      </c>
+      <c r="H6">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="I6">
+        <v>788.23</v>
+      </c>
+      <c r="J6">
+        <v>3.8765596795623421E-2</v>
+      </c>
+      <c r="K6">
+        <v>115.87762490579847</v>
+      </c>
+      <c r="L6">
+        <v>1.9761733811996602</v>
+      </c>
+      <c r="M6">
+        <v>1.5983093173162485E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.015854</v>
+      </c>
+      <c r="O6">
+        <v>3.7</v>
+      </c>
+      <c r="P6">
+        <v>0.81077200000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7">
+        <v>0.61102790205878632</v>
+      </c>
+      <c r="F7">
+        <v>6.7813940348982706</v>
+      </c>
+      <c r="G7">
+        <v>0.85092016562516926</v>
+      </c>
+      <c r="H7">
+        <v>0.377</v>
+      </c>
+      <c r="I7">
+        <v>787.9</v>
+      </c>
+      <c r="J7">
+        <v>5.3592443224855076E-2</v>
+      </c>
+      <c r="K7">
+        <v>105.76313700011588</v>
+      </c>
+      <c r="L7">
+        <v>2.1223928924191782</v>
+      </c>
+      <c r="M7">
+        <v>7.7302345258576433E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.90741300000000003</v>
+      </c>
+      <c r="O7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P7">
+        <v>0.81440500000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8">
+        <v>0.44406423512472032</v>
+      </c>
+      <c r="F8">
+        <v>9.5227971829671478</v>
+      </c>
+      <c r="G8">
+        <v>1.5459427416240568</v>
+      </c>
+      <c r="H8">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="I8">
+        <v>530.71</v>
+      </c>
+      <c r="J8">
+        <v>0.4897355781399988</v>
+      </c>
+      <c r="K8">
+        <v>94.581300133941909</v>
+      </c>
+      <c r="L8">
+        <v>2.2675380934264684</v>
+      </c>
+      <c r="M8">
+        <v>1.5864299002571074</v>
+      </c>
+      <c r="N8">
+        <v>1.443743</v>
+      </c>
+      <c r="O8">
+        <v>5.4</v>
+      </c>
+      <c r="P8">
+        <v>3.3711519999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9">
+        <v>0.37774580723715789</v>
+      </c>
+      <c r="F9">
+        <v>11.709473142715074</v>
+      </c>
+      <c r="G9">
+        <v>1.7789637358764492</v>
+      </c>
+      <c r="H9">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="I9">
+        <v>537.4</v>
+      </c>
+      <c r="J9">
+        <v>0.46661256692447178</v>
+      </c>
+      <c r="K9">
+        <v>103.83619751419175</v>
+      </c>
+      <c r="L9">
+        <v>2.170170097660916</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1.4943409999999999</v>
+      </c>
+      <c r="O9">
+        <v>6.7</v>
+      </c>
+      <c r="P9">
+        <v>4.2046830000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10">
+        <v>0.49971720707638456</v>
+      </c>
+      <c r="F10">
+        <v>21.529014842793259</v>
+      </c>
+      <c r="G10">
+        <v>3.2419104221549877</v>
+      </c>
+      <c r="H10">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="I10">
+        <v>540.83000000000004</v>
+      </c>
+      <c r="J10">
+        <v>0.41047918719261306</v>
+      </c>
+      <c r="K10">
+        <v>140.83643406221623</v>
+      </c>
+      <c r="L10">
+        <v>1.934512149563725</v>
+      </c>
+      <c r="M10">
+        <v>0.56204651904075009</v>
+      </c>
+      <c r="N10">
+        <v>1.2338340000000001</v>
+      </c>
+      <c r="O10">
+        <v>6.6</v>
+      </c>
+      <c r="P10">
+        <v>3.19747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11">
+        <v>0.34928143098971431</v>
+      </c>
+      <c r="F11">
+        <v>10.384332757975608</v>
+      </c>
+      <c r="G11">
+        <v>1.5911146413540109</v>
+      </c>
+      <c r="H11">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="I11">
+        <v>821.03</v>
+      </c>
+      <c r="J11">
+        <v>0.20869345819565407</v>
+      </c>
+      <c r="K11">
+        <v>71.74939509822498</v>
+      </c>
+      <c r="L11">
+        <v>2.4455569691880474</v>
+      </c>
+      <c r="M11">
+        <v>9.9268003590497946E-3</v>
+      </c>
+      <c r="N11">
+        <v>0.57711699999999999</v>
+      </c>
+      <c r="O11">
+        <v>5.6</v>
+      </c>
+      <c r="P11">
+        <v>0.33766600000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12">
+        <v>0.39072273899945181</v>
+      </c>
+      <c r="F12">
+        <v>6.4564211764879786</v>
+      </c>
+      <c r="G12">
+        <v>0.99459429102605834</v>
+      </c>
+      <c r="H12">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="I12">
+        <v>814.23</v>
+      </c>
+      <c r="J12">
+        <v>0.19037698692707017</v>
+      </c>
+      <c r="K12">
+        <v>80.397296701729971</v>
+      </c>
+      <c r="L12">
+        <v>2.383765597519464</v>
+      </c>
+      <c r="M12">
+        <v>1.4857288720543356E-2</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>6.5</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13">
+        <v>0.37000208499458309</v>
+      </c>
+      <c r="F13">
+        <v>3.4261579529067543</v>
+      </c>
+      <c r="G13">
+        <v>0.51667879541015804</v>
+      </c>
+      <c r="H13">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="I13">
+        <v>814.14</v>
+      </c>
+      <c r="J13">
+        <v>6.2364359536062779E-2</v>
+      </c>
+      <c r="K13">
+        <v>67.808027581947442</v>
+      </c>
+      <c r="L13">
+        <v>2.5542491679438162</v>
+      </c>
+      <c r="M13">
+        <v>6.4787043368770766E-2</v>
+      </c>
+      <c r="N13">
+        <v>1.066352</v>
+      </c>
+      <c r="O13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P13">
+        <v>1.791021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96091928-12A7-4D8F-910F-96E9963956A3}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2">
+        <v>0.45461598569707123</v>
+      </c>
+      <c r="F2">
+        <v>24.044549113204244</v>
+      </c>
+      <c r="G2">
+        <v>4.112972040674431</v>
+      </c>
+      <c r="H2">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="I2">
+        <v>567.97</v>
+      </c>
+      <c r="J2">
+        <v>6.3850731972616023E-2</v>
+      </c>
+      <c r="K2">
+        <v>63.659999234100297</v>
+      </c>
+      <c r="L2">
+        <v>1.1970472833676931</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.1331819999999999</v>
+      </c>
+      <c r="O2">
+        <v>2.5</v>
+      </c>
+      <c r="P2">
+        <v>2.234607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <v>0.47993378598625164</v>
+      </c>
+      <c r="F3">
+        <v>22.081357023008923</v>
+      </c>
+      <c r="G3">
+        <v>3.3366490374846052</v>
+      </c>
+      <c r="H3">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="I3">
+        <v>580.26</v>
+      </c>
+      <c r="J3">
+        <v>0.11523529275277197</v>
+      </c>
+      <c r="K3">
+        <v>57.36466327331383</v>
+      </c>
+      <c r="L3">
+        <v>1.2539184952978055</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.409524</v>
+      </c>
+      <c r="O3">
+        <v>1.2</v>
+      </c>
+      <c r="P3">
+        <v>2.7030029999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>0.37280518884253594</v>
+      </c>
+      <c r="F4">
+        <v>30.122076297514855</v>
+      </c>
+      <c r="G4">
+        <v>5.6077559098370715</v>
+      </c>
+      <c r="H4">
+        <v>0.56240000000000001</v>
+      </c>
+      <c r="I4">
+        <v>590.48</v>
+      </c>
+      <c r="J4">
+        <v>0.11193795873273503</v>
+      </c>
+      <c r="K4">
+        <v>65.449846949787357</v>
+      </c>
+      <c r="L4">
+        <v>1.2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.864924</v>
+      </c>
+      <c r="O4">
+        <v>0.9</v>
+      </c>
+      <c r="P4">
+        <v>3.6748189999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>0.20997143209730537</v>
+      </c>
+      <c r="F5">
+        <v>8.6699420809505927</v>
+      </c>
+      <c r="G5">
+        <v>1.2560072616628177</v>
+      </c>
+      <c r="H5">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="I5">
+        <v>528.79999999999995</v>
+      </c>
+      <c r="J5">
+        <v>7.8474821186245755E-2</v>
+      </c>
+      <c r="K5">
+        <v>140.78383602581641</v>
+      </c>
+      <c r="L5">
+        <v>0.9296080152868873</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.53406100000000001</v>
+      </c>
+      <c r="O5">
+        <v>2.6</v>
+      </c>
+      <c r="P5">
+        <v>0.55514399999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>0.23969458576757846</v>
+      </c>
+      <c r="F6">
+        <v>10.029643474824784</v>
+      </c>
+      <c r="G6">
+        <v>1.5579840121159556</v>
+      </c>
+      <c r="H6">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="I6">
+        <v>559.38</v>
+      </c>
+      <c r="J6">
+        <v>9.1886388987342291E-2</v>
+      </c>
+      <c r="K6">
+        <v>127.58645244386403</v>
+      </c>
+      <c r="L6">
+        <v>0.96061479346781953</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.50233700000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.6</v>
+      </c>
+      <c r="P6">
+        <v>0.88080000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7">
+        <v>0.39349658952027805</v>
+      </c>
+      <c r="F7">
+        <v>8.0713751824495805</v>
+      </c>
+      <c r="G7">
+        <v>1.1260980933422826</v>
+      </c>
+      <c r="H7">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="I7">
+        <v>581.57000000000005</v>
+      </c>
+      <c r="J7">
+        <v>8.3170720801281905E-2</v>
+      </c>
+      <c r="K7">
+        <v>136.03944647354504</v>
+      </c>
+      <c r="L7">
+        <v>0.94029149036201221</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.38721499999999998</v>
+      </c>
+      <c r="O7">
+        <v>3.9</v>
+      </c>
+      <c r="P7">
+        <v>0.55368099999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8">
+        <v>0.30098125115794111</v>
+      </c>
+      <c r="F8">
+        <v>18.273202068085414</v>
+      </c>
+      <c r="G8">
+        <v>3.0544194524849098</v>
+      </c>
+      <c r="H8">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="I8">
+        <v>737.57</v>
+      </c>
+      <c r="J8">
+        <v>0.27207197806531125</v>
+      </c>
+      <c r="K8">
+        <v>105.98593201674581</v>
+      </c>
+      <c r="L8">
+        <v>1.024506269160719</v>
+      </c>
+      <c r="M8">
+        <v>3.8835920000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.77552100000000002</v>
+      </c>
+      <c r="O8">
+        <v>0.3</v>
+      </c>
+      <c r="P8">
+        <v>0.87368199999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9">
+        <v>0.26612524637382667</v>
+      </c>
+      <c r="F9">
+        <v>21.618581969511606</v>
+      </c>
+      <c r="G9">
+        <v>3.3240549141374292</v>
+      </c>
+      <c r="H9">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="I9">
+        <v>755.23</v>
+      </c>
+      <c r="J9">
+        <v>0.28409938699289095</v>
+      </c>
+      <c r="K9">
+        <v>94.638104830774026</v>
+      </c>
+      <c r="L9">
+        <v>1.0611956137247966</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1.0052129999999999</v>
+      </c>
+      <c r="O9">
+        <v>1.7</v>
+      </c>
+      <c r="P9">
+        <v>1.5399099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10">
+        <v>0.28406790831669115</v>
+      </c>
+      <c r="F10">
+        <v>23.995869205552005</v>
+      </c>
+      <c r="G10">
+        <v>3.6405863570485075</v>
+      </c>
+      <c r="H10">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="I10">
+        <v>765.46</v>
+      </c>
+      <c r="J10">
+        <v>0.27547302235591892</v>
+      </c>
+      <c r="K10">
+        <v>117.3337592027176</v>
+      </c>
+      <c r="L10">
+        <v>0.98781692459664139</v>
+      </c>
+      <c r="M10">
+        <v>1.023766</v>
+      </c>
+      <c r="N10">
+        <v>0.737591</v>
+      </c>
+      <c r="O10">
+        <v>0.7</v>
+      </c>
+      <c r="P10">
+        <v>1.948461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11">
+        <v>0.11915583101842873</v>
+      </c>
+      <c r="F11">
+        <v>41.588889797355662</v>
+      </c>
+      <c r="G11">
+        <v>9.4392626359731686</v>
+      </c>
+      <c r="H11">
+        <v>0.33189999999999997</v>
+      </c>
+      <c r="I11">
+        <v>621.08000000000004</v>
+      </c>
+      <c r="J11">
+        <v>0.14050056320893597</v>
+      </c>
+      <c r="K11">
+        <v>59.132837035671955</v>
+      </c>
+      <c r="L11">
+        <v>1.2412937038824909</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.87567099999999998</v>
+      </c>
+      <c r="O11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P11">
+        <v>1.1421859999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12">
+        <v>0.10533583883866182</v>
+      </c>
+      <c r="F12">
+        <v>51.222564591752786</v>
+      </c>
+      <c r="G12">
+        <v>13.237861747994666</v>
+      </c>
+      <c r="H12">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="I12">
+        <v>630.12</v>
+      </c>
+      <c r="J12">
+        <v>0.15346000549224881</v>
+      </c>
+      <c r="K12">
+        <v>63.211299815794632</v>
+      </c>
+      <c r="L12">
+        <v>1.2140014837795914</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>3.1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13">
+        <v>0.14668897018254015</v>
+      </c>
+      <c r="F13">
+        <v>55.555546796729836</v>
+      </c>
+      <c r="G13">
+        <v>12.94651574981128</v>
+      </c>
+      <c r="H13">
+        <v>0.31380000000000002</v>
+      </c>
+      <c r="I13">
+        <v>660.42</v>
+      </c>
+      <c r="J13">
+        <v>0.23245399337348505</v>
+      </c>
+      <c r="K13">
+        <v>59.390113521920533</v>
+      </c>
+      <c r="L13">
+        <v>1.2394986916402702</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.97082400000000002</v>
+      </c>
+      <c r="O13">
+        <v>3.3</v>
+      </c>
+      <c r="P13">
+        <v>0.87795500000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B94BC4-1F94-443F-982A-3DEDBB2FBA52}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2">
+        <v>0.3745106370492875</v>
+      </c>
+      <c r="F2">
+        <v>11.984579221793263</v>
+      </c>
+      <c r="G2">
+        <v>1.9609915378060303</v>
+      </c>
+      <c r="H2">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="I2">
+        <v>840.82</v>
+      </c>
+      <c r="J2">
+        <v>0.2263357541101618</v>
+      </c>
+      <c r="K2">
+        <v>9123.7856256784089</v>
+      </c>
+      <c r="L2">
+        <v>0.52876530375211162</v>
+      </c>
+      <c r="M2">
+        <v>0.78786199999999995</v>
+      </c>
+      <c r="N2">
+        <v>0.804975</v>
+      </c>
+      <c r="O2">
+        <v>7.4</v>
+      </c>
+      <c r="P2">
+        <v>3.8046479999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <v>0.36646701750786814</v>
+      </c>
+      <c r="F3">
+        <v>12.694467320542305</v>
+      </c>
+      <c r="G3">
+        <v>1.8535491811664795</v>
+      </c>
+      <c r="H3">
+        <v>0.50739999999999996</v>
+      </c>
+      <c r="I3">
+        <v>839.73</v>
+      </c>
+      <c r="J3">
+        <v>0.16920761210145424</v>
+      </c>
+      <c r="K3">
+        <v>5653.309118950262</v>
+      </c>
+      <c r="L3">
+        <v>0.64093649273944764</v>
+      </c>
+      <c r="M3">
+        <v>0.28598099999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.79411799999999999</v>
+      </c>
+      <c r="O3">
+        <v>11.1</v>
+      </c>
+      <c r="P3">
+        <v>3.530192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>0.41817606521789186</v>
+      </c>
+      <c r="F4">
+        <v>13.697325367165615</v>
+      </c>
+      <c r="G4">
+        <v>1.8260342474107665</v>
+      </c>
+      <c r="H4">
+        <v>0.49559999999999998</v>
+      </c>
+      <c r="I4">
+        <v>844.27</v>
+      </c>
+      <c r="J4">
+        <v>0.16853932692165804</v>
+      </c>
+      <c r="K4">
+        <v>6085.7519035129671</v>
+      </c>
+      <c r="L4">
+        <v>0.58485089824577963</v>
+      </c>
+      <c r="M4">
+        <v>0.26465899999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.77261000000000002</v>
+      </c>
+      <c r="O4">
+        <v>11.4</v>
+      </c>
+      <c r="P4">
+        <v>3.3527019999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>0.32350525570818639</v>
+      </c>
+      <c r="F5">
+        <v>2.3152191163274445</v>
+      </c>
+      <c r="G5">
+        <v>0.37612535632595639</v>
+      </c>
+      <c r="H5">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="I5">
+        <v>1239.6400000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.15145683223965678</v>
+      </c>
+      <c r="K5">
+        <v>12046.400313126223</v>
+      </c>
+      <c r="L5">
+        <v>0.43918139697851771</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.88234599999999996</v>
+      </c>
+      <c r="O5">
+        <v>3.2</v>
+      </c>
+      <c r="P5">
+        <v>2.0069129999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>0.37638587731810513</v>
+      </c>
+      <c r="F6">
+        <v>4.4828551976933619</v>
+      </c>
+      <c r="G6">
+        <v>0.69503858882253777</v>
+      </c>
+      <c r="H6">
+        <v>0.2409</v>
+      </c>
+      <c r="I6">
+        <v>1583.13</v>
+      </c>
+      <c r="J6">
+        <v>0.12775223781259457</v>
+      </c>
+      <c r="K6">
+        <v>10376.409663483089</v>
+      </c>
+      <c r="L6">
+        <v>0.43799774332160796</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.909771</v>
+      </c>
+      <c r="O6">
+        <v>8.4</v>
+      </c>
+      <c r="P6">
+        <v>2.0083639999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7">
+        <v>0.23091431369814824</v>
+      </c>
+      <c r="F7">
+        <v>4.7711887269262023</v>
+      </c>
+      <c r="G7">
+        <v>0.75334305614560049</v>
+      </c>
+      <c r="H7">
+        <v>0.25059999999999999</v>
+      </c>
+      <c r="I7">
+        <v>1465.26</v>
+      </c>
+      <c r="J7">
+        <v>0.12780929111831568</v>
+      </c>
+      <c r="K7">
+        <v>8242.2183107487235</v>
+      </c>
+      <c r="L7">
+        <v>0.49425113996448372</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.64382700000000004</v>
+      </c>
+      <c r="O7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P7">
+        <v>1.251924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8">
+        <v>0.27913367931227046</v>
+      </c>
+      <c r="F8">
+        <v>6.1920110664217498</v>
+      </c>
+      <c r="G8">
+        <v>0.9332727357371744</v>
+      </c>
+      <c r="H8">
+        <v>0.5383</v>
+      </c>
+      <c r="I8">
+        <v>878.17</v>
+      </c>
+      <c r="J8">
+        <v>0.48296123934448443</v>
+      </c>
+      <c r="K8">
+        <v>5845.3354006665813</v>
+      </c>
+      <c r="L8">
+        <v>0.61511985102638056</v>
+      </c>
+      <c r="M8">
+        <v>1.4773400000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.79911200000000004</v>
+      </c>
+      <c r="O8">
+        <v>9.5</v>
+      </c>
+      <c r="P8">
+        <v>7.6093460000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9">
+        <v>0.27130912382593408</v>
+      </c>
+      <c r="F9">
+        <v>9.5767218322606329</v>
+      </c>
+      <c r="G9">
+        <v>1.0536382490852965</v>
+      </c>
+      <c r="H9">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="I9">
+        <v>864.69</v>
+      </c>
+      <c r="J9">
+        <v>0.41</v>
+      </c>
+      <c r="K9">
+        <v>6093.5515033845295</v>
+      </c>
+      <c r="L9">
+        <v>0.5879347537566344</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0.72729100000000002</v>
+      </c>
+      <c r="O9">
+        <v>14.1</v>
+      </c>
+      <c r="P9">
+        <v>7.2439099999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10">
+        <v>0.31714719902360627</v>
+      </c>
+      <c r="F10">
+        <v>7.8843664493411918</v>
+      </c>
+      <c r="G10">
+        <v>0.99345549241123543</v>
+      </c>
+      <c r="H10">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="I10">
+        <v>860.07</v>
+      </c>
+      <c r="J10">
+        <v>0.33091851551814755</v>
+      </c>
+      <c r="K10">
+        <v>7329.4150578581093</v>
+      </c>
+      <c r="L10">
+        <v>0.60152730239150753</v>
+      </c>
+      <c r="M10">
+        <v>0.23808399999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.63950600000000002</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>2.5148139999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11">
+        <v>0.18478391842065797</v>
+      </c>
+      <c r="F11">
+        <v>9.3249275901342372</v>
+      </c>
+      <c r="G11">
+        <v>1.4413883548314497</v>
+      </c>
+      <c r="H11">
+        <v>0.33389999999999997</v>
+      </c>
+      <c r="I11">
+        <v>1178.6400000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.14054390212672763</v>
+      </c>
+      <c r="K11">
+        <v>8440.1932231991977</v>
+      </c>
+      <c r="L11">
+        <v>0.52445623840891298</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.4509019999999999</v>
+      </c>
+      <c r="O11">
+        <v>6.5</v>
+      </c>
+      <c r="P11">
+        <v>1.4363939999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12">
+        <v>0.25142833386918717</v>
+      </c>
+      <c r="F12">
+        <v>5.0872455189193762</v>
+      </c>
+      <c r="G12">
+        <v>0.79947464354983611</v>
+      </c>
+      <c r="H12">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="I12">
+        <v>1163.6500000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.1781362416851093</v>
+      </c>
+      <c r="K12">
+        <v>11615.873708692901</v>
+      </c>
+      <c r="L12">
+        <v>0.45485913017184831</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>6.3</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13">
+        <v>0.24675088797358097</v>
+      </c>
+      <c r="F13">
+        <v>11.400459126304787</v>
+      </c>
+      <c r="G13">
+        <v>2.0870672986897731</v>
+      </c>
+      <c r="H13">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="I13">
+        <v>1146.69</v>
+      </c>
+      <c r="J13">
+        <v>0.10719262892934546</v>
+      </c>
+      <c r="K13">
+        <v>10851.651589611474</v>
+      </c>
+      <c r="L13">
+        <v>0.47156818266220513</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.61282300000000001</v>
+      </c>
+      <c r="O13">
+        <v>5.2</v>
+      </c>
+      <c r="P13">
+        <v>1.698075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108F8880-847D-4BCE-8F4B-5A7A66376703}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2">
+        <v>0.45843753519597003</v>
+      </c>
+      <c r="F2">
+        <v>22.646797317077674</v>
+      </c>
+      <c r="G2">
+        <v>3.5614415156573638</v>
+      </c>
+      <c r="H2">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="I2">
+        <v>742.88</v>
+      </c>
+      <c r="J2">
+        <v>0.29151298682108184</v>
+      </c>
+      <c r="K2">
+        <v>1010.4306307958012</v>
+      </c>
+      <c r="L2">
+        <v>0.59067286975704769</v>
+      </c>
+      <c r="M2">
+        <v>0.48699500000000001</v>
+      </c>
+      <c r="N2">
+        <v>4.9299000000000003E-2</v>
+      </c>
+      <c r="O2">
+        <v>3.1</v>
+      </c>
+      <c r="P2">
+        <v>0.372027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <v>0.36964246631633002</v>
+      </c>
+      <c r="F3">
+        <v>29.703876456142336</v>
+      </c>
+      <c r="G3">
+        <v>4.7782359588730268</v>
+      </c>
+      <c r="H3">
+        <v>0.2984</v>
+      </c>
+      <c r="I3">
+        <v>716.46</v>
+      </c>
+      <c r="J3">
+        <v>0.36319176762375849</v>
+      </c>
+      <c r="K3">
+        <v>925.03293024164782</v>
+      </c>
+      <c r="L3">
+        <v>0.59818010871730265</v>
+      </c>
+      <c r="M3">
+        <v>0.20416100000000001</v>
+      </c>
+      <c r="N3">
+        <v>3.3460999999999998E-2</v>
+      </c>
+      <c r="O3">
+        <v>2.8</v>
+      </c>
+      <c r="P3">
+        <v>0.33542499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>0.43025714394861903</v>
+      </c>
+      <c r="F4">
+        <v>14.795742796404586</v>
+      </c>
+      <c r="G4">
+        <v>2.5068484785018113</v>
+      </c>
+      <c r="H4">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="I4">
+        <v>705.92</v>
+      </c>
+      <c r="J4">
+        <v>0.46301054041754053</v>
+      </c>
+      <c r="K4">
+        <v>1011.2805562584259</v>
+      </c>
+      <c r="L4">
+        <v>0.59428542960289021</v>
+      </c>
+      <c r="M4">
+        <v>0.37357200000000002</v>
+      </c>
+      <c r="N4">
+        <v>0.238098</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>0.82272699999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>0.16846563303882583</v>
+      </c>
+      <c r="F5">
+        <v>10.048838822770994</v>
+      </c>
+      <c r="G5">
+        <v>2.4306268993193152</v>
+      </c>
+      <c r="H5">
+        <v>0.2707</v>
+      </c>
+      <c r="I5">
+        <v>446.39</v>
+      </c>
+      <c r="J5">
+        <v>0.15994455050356787</v>
+      </c>
+      <c r="K5">
+        <v>1044.9240042592646</v>
+      </c>
+      <c r="L5">
+        <v>0.57090895538796749</v>
+      </c>
+      <c r="M5">
+        <v>0.10119400000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.46029700000000001</v>
+      </c>
+      <c r="O5">
+        <v>3.2</v>
+      </c>
+      <c r="P5">
+        <v>0.99458299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>0.21350437227821045</v>
+      </c>
+      <c r="F6">
+        <v>8.3518784003831925</v>
+      </c>
+      <c r="G6">
+        <v>2.659052230441783</v>
+      </c>
+      <c r="H6">
+        <v>0.27089999999999997</v>
+      </c>
+      <c r="I6">
+        <v>451.81</v>
+      </c>
+      <c r="J6">
+        <v>0.18607258677797728</v>
+      </c>
+      <c r="K6">
+        <v>1147.4338684361608</v>
+      </c>
+      <c r="L6">
+        <v>0.55951108561499252</v>
+      </c>
+      <c r="M6">
+        <v>1.0884E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.38557999999999998</v>
+      </c>
+      <c r="O6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P6">
+        <v>0.73578399999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7">
+        <v>0.33945593282254044</v>
+      </c>
+      <c r="F7">
+        <v>13.712109064884846</v>
+      </c>
+      <c r="G7">
+        <v>2.0923557133454831</v>
+      </c>
+      <c r="H7">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="I7">
+        <v>431.62</v>
+      </c>
+      <c r="J7">
+        <v>0.10338637183968141</v>
+      </c>
+      <c r="K7">
+        <v>803.72702339290129</v>
+      </c>
+      <c r="L7">
+        <v>0.66148297756917229</v>
+      </c>
+      <c r="M7">
+        <v>4.1640000000000002E-3</v>
+      </c>
+      <c r="N7">
+        <v>0.31553100000000001</v>
+      </c>
+      <c r="O7">
+        <v>3.2</v>
+      </c>
+      <c r="P7">
+        <v>0.39421800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8">
+        <v>0.3559332667449725</v>
+      </c>
+      <c r="F8">
+        <v>23.931986023812225</v>
+      </c>
+      <c r="G8">
+        <v>3.5215107541420916</v>
+      </c>
+      <c r="H8">
+        <v>0.59940000000000004</v>
+      </c>
+      <c r="I8">
+        <v>781.62</v>
+      </c>
+      <c r="J8">
+        <v>0.41458680005502707</v>
+      </c>
+      <c r="K8">
+        <v>921.85783497321722</v>
+      </c>
+      <c r="L8">
+        <v>0.6325977542907929</v>
+      </c>
+      <c r="M8">
+        <v>1.319078</v>
+      </c>
+      <c r="N8">
+        <v>1.0509809999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.8</v>
+      </c>
+      <c r="P8">
+        <v>2.8212890000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9">
+        <v>0.38582002698883872</v>
+      </c>
+      <c r="F9">
+        <v>18.741276617873091</v>
+      </c>
+      <c r="G9">
+        <v>2.8934653468715457</v>
+      </c>
+      <c r="H9">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="I9">
+        <v>617.83000000000004</v>
+      </c>
+      <c r="J9">
+        <v>0.39782611604177204</v>
+      </c>
+      <c r="K9">
+        <v>1055.8066407131714</v>
+      </c>
+      <c r="L9">
+        <v>0.59856478106853572</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0.92887500000000001</v>
+      </c>
+      <c r="O9">
+        <v>1.2</v>
+      </c>
+      <c r="P9">
+        <v>2.0625909999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10">
+        <v>0.25704805390576063</v>
+      </c>
+      <c r="F10">
+        <v>23.839301618222997</v>
+      </c>
+      <c r="G10">
+        <v>3.7633472888830664</v>
+      </c>
+      <c r="H10">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="I10">
+        <v>622.78</v>
+      </c>
+      <c r="J10">
+        <v>0.41621094352773352</v>
+      </c>
+      <c r="K10">
+        <v>967.79055643064953</v>
+      </c>
+      <c r="L10">
+        <v>0.5856135824021329</v>
+      </c>
+      <c r="M10">
+        <v>0.83811100000000005</v>
+      </c>
+      <c r="N10">
+        <v>0.88020399999999999</v>
+      </c>
+      <c r="O10">
+        <v>2.4</v>
+      </c>
+      <c r="P10">
+        <v>1.711808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11">
+        <v>0.149999483691481</v>
+      </c>
+      <c r="F11">
+        <v>14.606966824893519</v>
+      </c>
+      <c r="G11">
+        <v>2.4298938755603561</v>
+      </c>
+      <c r="H11">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="I11">
+        <v>929.55</v>
+      </c>
+      <c r="J11">
+        <v>0.21834578721995931</v>
+      </c>
+      <c r="K11">
+        <v>605.07105532259368</v>
+      </c>
+      <c r="L11">
+        <v>0.67532853050911601</v>
+      </c>
+      <c r="M11">
+        <v>1.8759999999999999E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.656344</v>
+      </c>
+      <c r="O11">
+        <v>1.6</v>
+      </c>
+      <c r="P11">
+        <v>1.4297629999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12">
+        <v>0.19786638914086976</v>
+      </c>
+      <c r="F12">
+        <v>11.61639152514654</v>
+      </c>
+      <c r="G12">
+        <v>1.9037760514579527</v>
+      </c>
+      <c r="H12">
+        <v>0.3584</v>
+      </c>
+      <c r="I12">
+        <v>969.91</v>
+      </c>
+      <c r="J12">
+        <v>0.24759021889808411</v>
+      </c>
+      <c r="K12">
+        <v>629.8021971961648</v>
+      </c>
+      <c r="L12">
+        <v>0.67715216272024903</v>
+      </c>
+      <c r="M12">
+        <v>1.8908000000000001E-2</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1.5</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F13">
+        <v>13.111679175020029</v>
+      </c>
+      <c r="G13">
+        <v>2.1668349635091544</v>
+      </c>
+      <c r="H13">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="I13">
+        <v>991.65</v>
+      </c>
+      <c r="J13">
+        <v>0.23222000000000001</v>
+      </c>
+      <c r="K13">
+        <v>705.68589413728341</v>
+      </c>
+      <c r="L13">
+        <v>0.64697617424699305</v>
+      </c>
+      <c r="M13">
+        <v>7.9208000000000001E-2</v>
+      </c>
+      <c r="N13">
+        <v>1.1628769999999999</v>
+      </c>
+      <c r="O13">
+        <v>1.7</v>
+      </c>
+      <c r="P13">
+        <v>1.3124279999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>